--- a/biology/Botanique/Herman_von_Nördlinger/Herman_von_Nördlinger.xlsx
+++ b/biology/Botanique/Herman_von_Nördlinger/Herman_von_Nördlinger.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Herman_von_N%C3%B6rdlinger</t>
+          <t>Herman_von_Nördlinger</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Herman von Nördlinger (ou Hermann Nördlinger) (né à Stuttgart le 13 août 1818 et mort à Ludwigsbourg le 19 janvier 1897) est un forestier wurtembergeois, botaniste et entomologiste, professeur de sylviculture à l'université de Tübingen et inspecteur des forêts à Hohenheim.
 Entre 1852 et 1888, il publie divers ouvrages contenant des sections transversales en lames minces des bois des principales essences du monde entier.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Herman_von_N%C3%B6rdlinger</t>
+          <t>Herman_von_Nördlinger</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mémoire sur les essences forestières de la Bretagne, Nantes, 1845, 137 p. [1]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mémoire sur les essences forestières de la Bretagne, Nantes, 1845, 137 p. 
 (de) Querschnitte von hundert Holzarten, umfassend die Wald- und Garten-, so wie die gewöhnlischsten ausländischen Bosket-Bäume Deutschlands. Zur Belehrung für Forstleute, Landwirthe, Botaniker, Holztechnologen, Stuttgart Augsburg, J.G. Cotta, 1852-1888, 11 volumes.
-Collection de 60 sections transversales de bois des essences forestières les plus importantes à lʼusage des élèves de lʼécole impériale forestière de Nancy, destinée à accompagner la description des bois des essences forestières les plus importantes par M. Auguste Mathieu, Grimblot et veuve Raybois, Nancy, 1855[1].
+Collection de 60 sections transversales de bois des essences forestières les plus importantes à lʼusage des élèves de lʼécole impériale forestière de Nancy, destinée à accompagner la description des bois des essences forestières les plus importantes par M. Auguste Mathieu, Grimblot et veuve Raybois, Nancy, 1855.
 (de) Fünfzig Querschnitte der in Deutschland wachsenden hauptsächlichsten Bau-, Werk- und Brennhölzer – für Forstleute, Techniker und Holzarbeiter. Cotta, Stuttgart, Augsburg, 1858, 1884.
 50 cross sections, avec un texte de Shapranov en russe, St. Petersburg, 1868.
 Les bois employés dans lʼindustrie. Descriptions accompagnées de cent sections en lames minces des principales essences forestières de la France et de lʼAlgérie, Rothschild, Paris, 1872.
@@ -533,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Herman_von_N%C3%B6rdlinger</t>
+          <t>Herman_von_Nördlinger</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,7 +565,9 @@
           <t>Abréviations botaniques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Herman von Nördlinger est l'un des rares botanistes à avoir deux abréviations reconnues et conservées sciemment.
 Nördl. est l’abréviation botanique standard de Herman von Nördlinger.
